--- a/experiment/experimentResult.xlsx
+++ b/experiment/experimentResult.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>step(km)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,14 +33,38 @@
     <t>原数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>learnRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iterations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.00000000000000000000_);[Red]\(0.00000000000000000000\)"/>
-    <numFmt numFmtId="178" formatCode="0.000000000000000_ ;[Red]\-0.000000000000000\ "/>
+    <numFmt numFmtId="176" formatCode="0.00000000000000000000_);[Red]\(0.00000000000000000000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000000000000000_ ;[Red]\-0.000000000000000\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,12 +114,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,16 +427,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="37.625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -581,7 +613,7 @@
         <v>0.73382751631976695</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>100</v>
       </c>
@@ -592,7 +624,7 @@
         <v>0.73452450929546897</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>110</v>
       </c>
@@ -603,7 +635,7 @@
         <v>0.734721552357948</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>120</v>
       </c>
@@ -614,7 +646,7 @@
         <v>0.73502771278395296</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>140</v>
       </c>
@@ -625,7 +657,7 @@
         <v>0.736238851951732</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>150</v>
       </c>
@@ -636,7 +668,7 @@
         <v>0.73702695157200704</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>200</v>
       </c>
@@ -647,107 +679,227 @@
         <v>0.73884299434078904</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.62620604347005404</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.825977015714633</v>
+      </c>
+      <c r="D27">
+        <v>0.01</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="2">
+        <v>0.61515835902689298</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.81497559673973996</v>
+      </c>
+      <c r="E28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="2">
+        <v>0.58330363107133798</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.78128411284142796</v>
+      </c>
+      <c r="E29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="2">
+        <v>0.56999707648939701</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.76615797609055303</v>
+      </c>
+      <c r="D30">
+        <v>0.01</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="2">
+        <v>0.56420764855307903</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.75805846414804001</v>
+      </c>
+      <c r="D31">
+        <v>0.01</v>
+      </c>
+      <c r="E31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="2">
+        <v>0.56564093416120298</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.75730923414043405</v>
+      </c>
+      <c r="E32">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>0.57021761305684804</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.76024786181270498</v>
+      </c>
+      <c r="E33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="2">
+        <v>0.57846237438591697</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.76677662261131296</v>
+      </c>
+      <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>0.61901329067345601</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.81801536811655495</v>
+      </c>
+      <c r="D37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>0.56527559547037998</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.76038281257514195</v>
+      </c>
+      <c r="E38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>0.56216695287320595</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.75123684259389301</v>
+      </c>
+      <c r="E39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
@@ -780,24 +932,24 @@
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" s="1"/>
@@ -886,6 +1038,26 @@
     <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
